--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pf4-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pf4-Sdc2.xlsx
@@ -534,46 +534,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>16.18643233333333</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H2">
-        <v>48.559297</v>
+        <v>0.842662</v>
       </c>
       <c r="I2">
-        <v>0.9796015993801145</v>
+        <v>0.5595554696739399</v>
       </c>
       <c r="J2">
-        <v>0.9796015993801146</v>
+        <v>0.5595554696739399</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.321445333333333</v>
+        <v>0.5203476666666668</v>
       </c>
       <c r="N2">
-        <v>3.964336</v>
+        <v>1.561043</v>
       </c>
       <c r="O2">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="P2">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="Q2">
-        <v>21.38948547019911</v>
+        <v>0.1461590684962222</v>
       </c>
       <c r="R2">
-        <v>192.505369231792</v>
+        <v>1.315431616466</v>
       </c>
       <c r="S2">
-        <v>0.01000939342806551</v>
+        <v>0.002297498038362259</v>
       </c>
       <c r="T2">
-        <v>0.01000939342806552</v>
+        <v>0.002297498038362259</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>16.18643233333333</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H3">
-        <v>48.559297</v>
+        <v>0.842662</v>
       </c>
       <c r="I3">
-        <v>0.9796015993801145</v>
+        <v>0.5595554696739399</v>
       </c>
       <c r="J3">
-        <v>0.9796015993801146</v>
+        <v>0.5595554696739399</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>317.889679</v>
       </c>
       <c r="O3">
-        <v>0.819340166699254</v>
+        <v>0.8361295370252257</v>
       </c>
       <c r="P3">
-        <v>0.8193401666992541</v>
+        <v>0.8361295370252259</v>
       </c>
       <c r="Q3">
-        <v>1715.166592866185</v>
+        <v>29.76372807616644</v>
       </c>
       <c r="R3">
-        <v>15436.49933579566</v>
+        <v>267.873552685498</v>
       </c>
       <c r="S3">
-        <v>0.8026269377349589</v>
+        <v>0.4678608557984041</v>
       </c>
       <c r="T3">
-        <v>0.8026269377349591</v>
+        <v>0.4678608557984041</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>16.18643233333333</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H4">
-        <v>48.559297</v>
+        <v>0.842662</v>
       </c>
       <c r="I4">
-        <v>0.9796015993801145</v>
+        <v>0.5595554696739399</v>
       </c>
       <c r="J4">
-        <v>0.9796015993801146</v>
+        <v>0.5595554696739399</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.04284166666666</v>
+        <v>20.24706</v>
       </c>
       <c r="N4">
-        <v>66.128525</v>
+        <v>60.74118</v>
       </c>
       <c r="O4">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="P4">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="Q4">
-        <v>356.7949650718805</v>
+        <v>5.68714269124</v>
       </c>
       <c r="R4">
-        <v>3211.154685646925</v>
+        <v>51.18428422116</v>
       </c>
       <c r="S4">
-        <v>0.1669652682170901</v>
+        <v>0.08939711583717351</v>
       </c>
       <c r="T4">
-        <v>0.1669652682170901</v>
+        <v>0.08939711583717354</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3370526666666667</v>
+        <v>0.2210956666666667</v>
       </c>
       <c r="H5">
-        <v>1.011158</v>
+        <v>0.663287</v>
       </c>
       <c r="I5">
-        <v>0.02039840061988537</v>
+        <v>0.4404445303260602</v>
       </c>
       <c r="J5">
-        <v>0.02039840061988537</v>
+        <v>0.4404445303260602</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.321445333333333</v>
+        <v>0.5203476666666668</v>
       </c>
       <c r="N5">
-        <v>3.964336</v>
+        <v>1.561043</v>
       </c>
       <c r="O5">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="P5">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="Q5">
-        <v>0.4453966734542222</v>
+        <v>0.1150466142601111</v>
       </c>
       <c r="R5">
-        <v>4.008570061088</v>
+        <v>1.035419528341</v>
       </c>
       <c r="S5">
-        <v>0.0002084271986049524</v>
+        <v>0.001808436337904388</v>
       </c>
       <c r="T5">
-        <v>0.0002084271986049525</v>
+        <v>0.001808436337904388</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.3370526666666667</v>
+        <v>0.2210956666666667</v>
       </c>
       <c r="H6">
-        <v>1.011158</v>
+        <v>0.663287</v>
       </c>
       <c r="I6">
-        <v>0.02039840061988537</v>
+        <v>0.4404445303260602</v>
       </c>
       <c r="J6">
-        <v>0.02039840061988537</v>
+        <v>0.4404445303260602</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>317.889679</v>
       </c>
       <c r="O6">
-        <v>0.819340166699254</v>
+        <v>0.8361295370252257</v>
       </c>
       <c r="P6">
-        <v>0.8193401666992541</v>
+        <v>0.8361295370252259</v>
       </c>
       <c r="Q6">
-        <v>35.71518800425356</v>
+        <v>23.42801016831922</v>
       </c>
       <c r="R6">
-        <v>321.436692038282</v>
+        <v>210.852091514873</v>
       </c>
       <c r="S6">
-        <v>0.01671322896429505</v>
+        <v>0.3682686812268218</v>
       </c>
       <c r="T6">
-        <v>0.01671322896429505</v>
+        <v>0.3682686812268218</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.3370526666666667</v>
+        <v>0.2210956666666667</v>
       </c>
       <c r="H7">
-        <v>1.011158</v>
+        <v>0.663287</v>
       </c>
       <c r="I7">
-        <v>0.02039840061988537</v>
+        <v>0.4404445303260602</v>
       </c>
       <c r="J7">
-        <v>0.02039840061988537</v>
+        <v>0.4404445303260602</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.04284166666666</v>
+        <v>20.24706</v>
       </c>
       <c r="N7">
-        <v>66.128525</v>
+        <v>60.74118</v>
       </c>
       <c r="O7">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="P7">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="Q7">
-        <v>7.42959856466111</v>
+        <v>4.47653722874</v>
       </c>
       <c r="R7">
-        <v>66.86638708194999</v>
+        <v>40.28883505866</v>
       </c>
       <c r="S7">
-        <v>0.003476744456985371</v>
+        <v>0.0703674127613341</v>
       </c>
       <c r="T7">
-        <v>0.003476744456985372</v>
+        <v>0.0703674127613341</v>
       </c>
     </row>
   </sheetData>
